--- a/Data_clean/MCAS/Estados_US/Edos_USA_2020/UTAH_2020.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2020/UTAH_2020.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D992"/>
+  <dimension ref="A1:D986"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -439,7 +439,7 @@
     <row r="6">
       <c r="B6" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C6">
@@ -452,7 +452,7 @@
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C7">
@@ -465,7 +465,7 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>San Francisco de los Romo</t>
+          <t>San Francisco De Los Romo</t>
         </is>
       </c>
       <c r="C8">
@@ -771,7 +771,7 @@
     <row r="30">
       <c r="B30" t="inlineStr">
         <is>
-          <t>Chiapa de Corzo</t>
+          <t>Chiapa De Corzo</t>
         </is>
       </c>
       <c r="C30">
@@ -953,7 +953,7 @@
     <row r="44">
       <c r="B44" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C44">
@@ -1374,7 +1374,7 @@
     <row r="76">
       <c r="B76" t="inlineStr">
         <is>
-          <t>Guadalupe y Calvo</t>
+          <t>Guadalupe Y Calvo</t>
         </is>
       </c>
       <c r="C76">
@@ -1400,7 +1400,7 @@
     <row r="78">
       <c r="B78" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C78">
@@ -1569,7 +1569,7 @@
     <row r="91">
       <c r="B91" t="inlineStr">
         <is>
-          <t>San Francisco del Oro</t>
+          <t>San Francisco Del Oro</t>
         </is>
       </c>
       <c r="C91">
@@ -1660,7 +1660,7 @@
     <row r="98">
       <c r="B98" t="inlineStr">
         <is>
-          <t>Valle de Zaragoza</t>
+          <t>Valle De Zaragoza</t>
         </is>
       </c>
       <c r="C98">
@@ -1943,7 +1943,7 @@
     <row r="119">
       <c r="B119" t="inlineStr">
         <is>
-          <t>Villa de Álvarez</t>
+          <t>Villa De Álvarez</t>
         </is>
       </c>
       <c r="C119">
@@ -1969,7 +1969,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -2330,7 +2330,7 @@
     <row r="148">
       <c r="B148" t="inlineStr">
         <is>
-          <t>Nombre de Dios</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C148">
@@ -2421,7 +2421,7 @@
     <row r="155">
       <c r="B155" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C155">
@@ -2434,7 +2434,7 @@
     <row r="156">
       <c r="B156" t="inlineStr">
         <is>
-          <t>San Luis del Cordero</t>
+          <t>San Luis Del Cordero</t>
         </is>
       </c>
       <c r="C156">
@@ -2525,7 +2525,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -2543,7 +2543,7 @@
     <row r="164">
       <c r="B164" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C164">
@@ -2556,7 +2556,7 @@
     <row r="165">
       <c r="B165" t="inlineStr">
         <is>
-          <t>Almoloya del Río</t>
+          <t>Almoloya Del Río</t>
         </is>
       </c>
       <c r="C165">
@@ -2647,7 +2647,7 @@
     <row r="172">
       <c r="B172" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C172">
@@ -2738,7 +2738,7 @@
     <row r="179">
       <c r="B179" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C179">
@@ -2803,7 +2803,7 @@
     <row r="184">
       <c r="B184" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C184">
@@ -2933,7 +2933,7 @@
     <row r="194">
       <c r="B194" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C194">
@@ -3050,7 +3050,7 @@
     <row r="203">
       <c r="B203" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C203">
@@ -3063,7 +3063,7 @@
     <row r="204">
       <c r="B204" t="inlineStr">
         <is>
-          <t>San Simón de Guerero</t>
+          <t>San Simón De Guerero</t>
         </is>
       </c>
       <c r="C204">
@@ -3076,7 +3076,7 @@
     <row r="205">
       <c r="B205" t="inlineStr">
         <is>
-          <t>Soyaniquilpan de Juárez</t>
+          <t>Soyaniquilpan De Juárez</t>
         </is>
       </c>
       <c r="C205">
@@ -3193,7 +3193,7 @@
     <row r="214">
       <c r="B214" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C214">
@@ -3284,7 +3284,7 @@
     <row r="221">
       <c r="B221" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C221">
@@ -3349,7 +3349,7 @@
     <row r="226">
       <c r="B226" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C226">
@@ -3362,7 +3362,7 @@
     <row r="227">
       <c r="B227" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C227">
@@ -3466,7 +3466,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>GUANAJUATO</t>
+          <t>Guanajuato</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
@@ -3510,7 +3510,7 @@
     <row r="238">
       <c r="B238" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C238">
@@ -3575,7 +3575,7 @@
     <row r="243">
       <c r="B243" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C243">
@@ -3744,7 +3744,7 @@
     <row r="256">
       <c r="B256" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C256">
@@ -3757,7 +3757,7 @@
     <row r="257">
       <c r="B257" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C257">
@@ -3783,7 +3783,7 @@
     <row r="259">
       <c r="B259" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C259">
@@ -3796,7 +3796,7 @@
     <row r="260">
       <c r="B260" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C260">
@@ -3822,7 +3822,7 @@
     <row r="262">
       <c r="B262" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C262">
@@ -3874,7 +3874,7 @@
     <row r="266">
       <c r="B266" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C266">
@@ -3949,7 +3949,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C271">
@@ -3988,7 +3988,7 @@
     <row r="274">
       <c r="B274" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C274">
@@ -4001,7 +4001,7 @@
     <row r="275">
       <c r="B275" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerero</t>
+          <t>Alcozauca De Guerero</t>
         </is>
       </c>
       <c r="C275">
@@ -4040,7 +4040,7 @@
     <row r="278">
       <c r="B278" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C278">
@@ -4053,7 +4053,7 @@
     <row r="279">
       <c r="B279" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C279">
@@ -4079,7 +4079,7 @@
     <row r="281">
       <c r="B281" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C281">
@@ -4092,7 +4092,7 @@
     <row r="282">
       <c r="B282" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C282">
@@ -4105,7 +4105,7 @@
     <row r="283">
       <c r="B283" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C283">
@@ -4118,7 +4118,7 @@
     <row r="284">
       <c r="B284" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C284">
@@ -4183,7 +4183,7 @@
     <row r="289">
       <c r="B289" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C289">
@@ -4196,7 +4196,7 @@
     <row r="290">
       <c r="B290" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C290">
@@ -4235,7 +4235,7 @@
     <row r="293">
       <c r="B293" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C293">
@@ -4313,7 +4313,7 @@
     <row r="299">
       <c r="B299" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C299">
@@ -4326,7 +4326,7 @@
     <row r="300">
       <c r="B300" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C300">
@@ -4352,7 +4352,7 @@
     <row r="302">
       <c r="B302" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C302">
@@ -4378,7 +4378,7 @@
     <row r="304">
       <c r="B304" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C304">
@@ -4573,7 +4573,7 @@
     <row r="319">
       <c r="B319" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C319">
@@ -4599,7 +4599,7 @@
     <row r="321">
       <c r="B321" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C321">
@@ -4625,7 +4625,7 @@
     <row r="323">
       <c r="B323" t="inlineStr">
         <is>
-          <t>Tixtla de Guerero</t>
+          <t>Tixtla De Guerero</t>
         </is>
       </c>
       <c r="C323">
@@ -4664,7 +4664,7 @@
     <row r="326">
       <c r="B326" t="inlineStr">
         <is>
-          <t>Tlalixtaquilla de Maldonado</t>
+          <t>Tlalixtaquilla De Maldonado</t>
         </is>
       </c>
       <c r="C326">
@@ -4677,7 +4677,7 @@
     <row r="327">
       <c r="B327" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C327">
@@ -4734,7 +4734,7 @@
     <row r="331">
       <c r="B331" t="inlineStr">
         <is>
-          <t>Agua Blanca de Iturbide</t>
+          <t>Agua Blanca De Iturbide</t>
         </is>
       </c>
       <c r="C331">
@@ -4786,7 +4786,7 @@
     <row r="335">
       <c r="B335" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C335">
@@ -4812,7 +4812,7 @@
     <row r="337">
       <c r="B337" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C337">
@@ -4864,7 +4864,7 @@
     <row r="341">
       <c r="B341" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C341">
@@ -4903,7 +4903,7 @@
     <row r="344">
       <c r="B344" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C344">
@@ -4955,7 +4955,7 @@
     <row r="348">
       <c r="B348" t="inlineStr">
         <is>
-          <t>Mineral del Monte</t>
+          <t>Mineral Del Monte</t>
         </is>
       </c>
       <c r="C348">
@@ -4968,7 +4968,7 @@
     <row r="349">
       <c r="B349" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C349">
@@ -4981,7 +4981,7 @@
     <row r="350">
       <c r="B350" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C350">
@@ -5007,7 +5007,7 @@
     <row r="352">
       <c r="B352" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C352">
@@ -5059,7 +5059,7 @@
     <row r="356">
       <c r="B356" t="inlineStr">
         <is>
-          <t>Santiago de Anaya</t>
+          <t>Santiago De Anaya</t>
         </is>
       </c>
       <c r="C356">
@@ -5072,7 +5072,7 @@
     <row r="357">
       <c r="B357" t="inlineStr">
         <is>
-          <t>Santiago Tulantepec de Lugo Guerero</t>
+          <t>Santiago Tulantepec De Lugo Guerero</t>
         </is>
       </c>
       <c r="C357">
@@ -5124,7 +5124,7 @@
     <row r="361">
       <c r="B361" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerero</t>
+          <t>Tepehuacán De Guerero</t>
         </is>
       </c>
       <c r="C361">
@@ -5137,7 +5137,7 @@
     <row r="362">
       <c r="B362" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C362">
@@ -5215,7 +5215,7 @@
     <row r="368">
       <c r="B368" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C368">
@@ -5228,7 +5228,7 @@
     <row r="369">
       <c r="B369" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C369">
@@ -5311,7 +5311,7 @@
     <row r="375">
       <c r="B375" t="inlineStr">
         <is>
-          <t>Acatlán de Juárez</t>
+          <t>Acatlán De Juárez</t>
         </is>
       </c>
       <c r="C375">
@@ -5324,7 +5324,7 @@
     <row r="376">
       <c r="B376" t="inlineStr">
         <is>
-          <t>Ahualulco de Mercado</t>
+          <t>Ahualulco De Mercado</t>
         </is>
       </c>
       <c r="C376">
@@ -5389,7 +5389,7 @@
     <row r="381">
       <c r="B381" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C381">
@@ -5415,7 +5415,7 @@
     <row r="383">
       <c r="B383" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C383">
@@ -5558,7 +5558,7 @@
     <row r="394">
       <c r="B394" t="inlineStr">
         <is>
-          <t>Concepción de Buenos Aires</t>
+          <t>Concepción De Buenos Aires</t>
         </is>
       </c>
       <c r="C394">
@@ -5571,7 +5571,7 @@
     <row r="395">
       <c r="B395" t="inlineStr">
         <is>
-          <t>Cuautitlán de García Barragán</t>
+          <t>Cuautitlán De García Barragán</t>
         </is>
       </c>
       <c r="C395">
@@ -5610,7 +5610,7 @@
     <row r="398">
       <c r="B398" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C398">
@@ -5688,7 +5688,7 @@
     <row r="404">
       <c r="B404" t="inlineStr">
         <is>
-          <t>Huejuquilla el Alto</t>
+          <t>Huejuquilla El Alto</t>
         </is>
       </c>
       <c r="C404">
@@ -5701,7 +5701,7 @@
     <row r="405">
       <c r="B405" t="inlineStr">
         <is>
-          <t>Ixtlahuacán de los Membrillos</t>
+          <t>Ixtlahuacán De Los Membrillos</t>
         </is>
       </c>
       <c r="C405">
@@ -5714,7 +5714,7 @@
     <row r="406">
       <c r="B406" t="inlineStr">
         <is>
-          <t>Ixtlahuacán del Río</t>
+          <t>Ixtlahuacán Del Río</t>
         </is>
       </c>
       <c r="C406">
@@ -5753,7 +5753,7 @@
     <row r="409">
       <c r="B409" t="inlineStr">
         <is>
-          <t>Jilotlán de los Dolores</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C409">
@@ -5831,7 +5831,7 @@
     <row r="415">
       <c r="B415" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C415">
@@ -5896,7 +5896,7 @@
     <row r="420">
       <c r="B420" t="inlineStr">
         <is>
-          <t>Ojuelos de Jalisco</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C420">
@@ -5961,7 +5961,7 @@
     <row r="425">
       <c r="B425" t="inlineStr">
         <is>
-          <t>San Diego de Alejandría</t>
+          <t>San Diego De Alejandría</t>
         </is>
       </c>
       <c r="C425">
@@ -5974,7 +5974,7 @@
     <row r="426">
       <c r="B426" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C426">
@@ -6000,7 +6000,7 @@
     <row r="428">
       <c r="B428" t="inlineStr">
         <is>
-          <t>San Martín de Bolaños</t>
+          <t>San Martín De Bolaños</t>
         </is>
       </c>
       <c r="C428">
@@ -6026,7 +6026,7 @@
     <row r="430">
       <c r="B430" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C430">
@@ -6039,7 +6039,7 @@
     <row r="431">
       <c r="B431" t="inlineStr">
         <is>
-          <t>San Sebastián del Oeste</t>
+          <t>San Sebastián Del Oeste</t>
         </is>
       </c>
       <c r="C431">
@@ -6052,7 +6052,7 @@
     <row r="432">
       <c r="B432" t="inlineStr">
         <is>
-          <t>Santa María de los Ángeles</t>
+          <t>Santa María De Los Ángeles</t>
         </is>
       </c>
       <c r="C432">
@@ -6078,7 +6078,7 @@
     <row r="434">
       <c r="B434" t="inlineStr">
         <is>
-          <t>Talpa de Allende</t>
+          <t>Talpa De Allende</t>
         </is>
       </c>
       <c r="C434">
@@ -6091,7 +6091,7 @@
     <row r="435">
       <c r="B435" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C435">
@@ -6156,7 +6156,7 @@
     <row r="440">
       <c r="B440" t="inlineStr">
         <is>
-          <t>Teocuitatlán de Corona</t>
+          <t>Teocuitatlán De Corona</t>
         </is>
       </c>
       <c r="C440">
@@ -6169,7 +6169,7 @@
     <row r="441">
       <c r="B441" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C441">
@@ -6208,7 +6208,7 @@
     <row r="444">
       <c r="B444" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C444">
@@ -6221,7 +6221,7 @@
     <row r="445">
       <c r="B445" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C445">
@@ -6338,7 +6338,7 @@
     <row r="454">
       <c r="B454" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C454">
@@ -6351,7 +6351,7 @@
     <row r="455">
       <c r="B455" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C455">
@@ -6364,7 +6364,7 @@
     <row r="456">
       <c r="B456" t="inlineStr">
         <is>
-          <t>Valle de Juárez</t>
+          <t>Valle De Juárez</t>
         </is>
       </c>
       <c r="C456">
@@ -6429,7 +6429,7 @@
     <row r="461">
       <c r="B461" t="inlineStr">
         <is>
-          <t>Yahualica de González Gallo</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C461">
@@ -6442,7 +6442,7 @@
     <row r="462">
       <c r="B462" t="inlineStr">
         <is>
-          <t>Zacoalco de Torres</t>
+          <t>Zacoalco De Torres</t>
         </is>
       </c>
       <c r="C462">
@@ -6481,7 +6481,7 @@
     <row r="465">
       <c r="B465" t="inlineStr">
         <is>
-          <t>Zapotitlán de Vadillo</t>
+          <t>Zapotitlán De Vadillo</t>
         </is>
       </c>
       <c r="C465">
@@ -6494,7 +6494,7 @@
     <row r="466">
       <c r="B466" t="inlineStr">
         <is>
-          <t>Zapotlán del Rey</t>
+          <t>Zapotlán Del Rey</t>
         </is>
       </c>
       <c r="C466">
@@ -6507,7 +6507,7 @@
     <row r="467">
       <c r="B467" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C467">
@@ -6785,7 +6785,7 @@
     <row r="488">
       <c r="B488" t="inlineStr">
         <is>
-          <t>Cojumatlán de Régules</t>
+          <t>Cojumatlán De Régules</t>
         </is>
       </c>
       <c r="C488">
@@ -7752,7 +7752,7 @@
     <row r="562">
       <c r="B562" t="inlineStr">
         <is>
-          <t>Coatlán del Río</t>
+          <t>Coatlán Del Río</t>
         </is>
       </c>
       <c r="C562">
@@ -7830,7 +7830,7 @@
     <row r="568">
       <c r="B568" t="inlineStr">
         <is>
-          <t>Jonacatepec de Leandro Valle</t>
+          <t>Jonacatepec De Leandro Valle</t>
         </is>
       </c>
       <c r="C568">
@@ -7856,7 +7856,7 @@
     <row r="570">
       <c r="B570" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C570">
@@ -7908,7 +7908,7 @@
     <row r="574">
       <c r="B574" t="inlineStr">
         <is>
-          <t>Tetela del Volcán</t>
+          <t>Tetela Del Volcán</t>
         </is>
       </c>
       <c r="C574">
@@ -7921,7 +7921,7 @@
     <row r="575">
       <c r="B575" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C575">
@@ -8056,7 +8056,7 @@
     <row r="585">
       <c r="B585" t="inlineStr">
         <is>
-          <t>Amatlán de Cañas</t>
+          <t>Amatlán De Cañas</t>
         </is>
       </c>
       <c r="C585">
@@ -8069,7 +8069,7 @@
     <row r="586">
       <c r="B586" t="inlineStr">
         <is>
-          <t>Bahía de Banderas</t>
+          <t>Bahía De Banderas</t>
         </is>
       </c>
       <c r="C586">
@@ -8108,7 +8108,7 @@
     <row r="589">
       <c r="B589" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C589">
@@ -8199,7 +8199,7 @@
     <row r="596">
       <c r="B596" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C596">
@@ -8360,7 +8360,7 @@
     <row r="608">
       <c r="B608" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C608">
@@ -8391,7 +8391,7 @@
       </c>
       <c r="B610" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C610">
@@ -8443,7 +8443,7 @@
     <row r="614">
       <c r="B614" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C614">
@@ -8456,7 +8456,7 @@
     <row r="615">
       <c r="B615" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C615">
@@ -8495,7 +8495,7 @@
     <row r="618">
       <c r="B618" t="inlineStr">
         <is>
-          <t>Mazatlán Villa de Flores</t>
+          <t>Mazatlán Villa De Flores</t>
         </is>
       </c>
       <c r="C618">
@@ -8508,7 +8508,7 @@
     <row r="619">
       <c r="B619" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C619">
@@ -8534,7 +8534,7 @@
     <row r="621">
       <c r="B621" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C621">
@@ -8547,7 +8547,7 @@
     <row r="622">
       <c r="B622" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C622">
@@ -8560,7 +8560,7 @@
     <row r="623">
       <c r="B623" t="inlineStr">
         <is>
-          <t>Pinotepa de Don Luis</t>
+          <t>Pinotepa De Don Luis</t>
         </is>
       </c>
       <c r="C623">
@@ -8573,7 +8573,7 @@
     <row r="624">
       <c r="B624" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerero</t>
+          <t>Putla Villa De Guerero</t>
         </is>
       </c>
       <c r="C624">
@@ -8820,7 +8820,7 @@
     <row r="643">
       <c r="B643" t="inlineStr">
         <is>
-          <t>San Pablo Villa de Mitla</t>
+          <t>San Pablo Villa De Mitla</t>
         </is>
       </c>
       <c r="C643">
@@ -8937,7 +8937,7 @@
     <row r="652">
       <c r="B652" t="inlineStr">
         <is>
-          <t>Santa María Jalapa del Marqués</t>
+          <t>Santa María Jalapa Del Marqués</t>
         </is>
       </c>
       <c r="C652">
@@ -9249,7 +9249,7 @@
     <row r="676">
       <c r="B676" t="inlineStr">
         <is>
-          <t>Teotitlán de Flores Magón</t>
+          <t>Teotitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C676">
@@ -9262,7 +9262,7 @@
     <row r="677">
       <c r="B677" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C677">
@@ -9288,7 +9288,7 @@
     <row r="679">
       <c r="B679" t="inlineStr">
         <is>
-          <t>Villa de Etla</t>
+          <t>Villa De Etla</t>
         </is>
       </c>
       <c r="C679">
@@ -9301,7 +9301,7 @@
     <row r="680">
       <c r="B680" t="inlineStr">
         <is>
-          <t>Villa de Tututepec de Melchor Ocampo</t>
+          <t>Villa De Tututepec De Melchor Ocampo</t>
         </is>
       </c>
       <c r="C680">
@@ -9314,7 +9314,7 @@
     <row r="681">
       <c r="B681" t="inlineStr">
         <is>
-          <t>Zapotitlán del Río</t>
+          <t>Zapotitlán Del Río</t>
         </is>
       </c>
       <c r="C681">
@@ -9327,7 +9327,7 @@
     <row r="682">
       <c r="B682" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C682">
@@ -9566,7 +9566,7 @@
     <row r="700">
       <c r="B700" t="inlineStr">
         <is>
-          <t>Cuayuca de Andrade</t>
+          <t>Cuayuca De Andrade</t>
         </is>
       </c>
       <c r="C700">
@@ -9631,7 +9631,7 @@
     <row r="705">
       <c r="B705" t="inlineStr">
         <is>
-          <t>Huehuetlán el Chico</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C705">
@@ -9683,7 +9683,7 @@
     <row r="709">
       <c r="B709" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C709">
@@ -9761,7 +9761,7 @@
     <row r="715">
       <c r="B715" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C715">
@@ -9800,7 +9800,7 @@
     <row r="718">
       <c r="B718" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C718">
@@ -9917,7 +9917,7 @@
     <row r="727">
       <c r="B727" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C727">
@@ -9930,7 +9930,7 @@
     <row r="728">
       <c r="B728" t="inlineStr">
         <is>
-          <t>Tecali de Herrera</t>
+          <t>Tecali De Herrera</t>
         </is>
       </c>
       <c r="C728">
@@ -9982,7 +9982,7 @@
     <row r="732">
       <c r="B732" t="inlineStr">
         <is>
-          <t>Tepanco de López</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C732">
@@ -9995,7 +9995,7 @@
     <row r="733">
       <c r="B733" t="inlineStr">
         <is>
-          <t>Tepatlaxco de Hidalgo</t>
+          <t>Tepatlaxco De Hidalgo</t>
         </is>
       </c>
       <c r="C733">
@@ -10034,7 +10034,7 @@
     <row r="736">
       <c r="B736" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C736">
@@ -10047,7 +10047,7 @@
     <row r="737">
       <c r="B737" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C737">
@@ -10086,7 +10086,7 @@
     <row r="740">
       <c r="B740" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C740">
@@ -10151,7 +10151,7 @@
     <row r="745">
       <c r="B745" t="inlineStr">
         <is>
-          <t>Xayacatlán de Bravo</t>
+          <t>Xayacatlán De Bravo</t>
         </is>
       </c>
       <c r="C745">
@@ -10247,7 +10247,7 @@
       </c>
       <c r="B752" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C752">
@@ -10260,7 +10260,7 @@
     <row r="753">
       <c r="B753" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C753">
@@ -10273,7 +10273,7 @@
     <row r="754">
       <c r="B754" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C754">
@@ -10299,7 +10299,7 @@
     <row r="756">
       <c r="B756" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C756">
@@ -10325,7 +10325,7 @@
     <row r="758">
       <c r="B758" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C758">
@@ -10478,7 +10478,7 @@
     <row r="769">
       <c r="B769" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C769">
@@ -10530,7 +10530,7 @@
     <row r="773">
       <c r="B773" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C773">
@@ -10569,7 +10569,7 @@
     <row r="776">
       <c r="B776" t="inlineStr">
         <is>
-          <t>San Ciro de Acosta</t>
+          <t>San Ciro De Acosta</t>
         </is>
       </c>
       <c r="C776">
@@ -10595,7 +10595,7 @@
     <row r="778">
       <c r="B778" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C778">
@@ -10621,7 +10621,7 @@
     <row r="780">
       <c r="B780" t="inlineStr">
         <is>
-          <t>Soledad de Graciano Sánchez</t>
+          <t>Soledad De Graciano Sánchez</t>
         </is>
       </c>
       <c r="C780">
@@ -10660,7 +10660,7 @@
     <row r="783">
       <c r="B783" t="inlineStr">
         <is>
-          <t>Villa de Arriaga</t>
+          <t>Villa De Arriaga</t>
         </is>
       </c>
       <c r="C783">
@@ -10673,7 +10673,7 @@
     <row r="784">
       <c r="B784" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C784">
@@ -11203,7 +11203,7 @@
     <row r="824">
       <c r="B824" t="inlineStr">
         <is>
-          <t>Nacozari de García</t>
+          <t>Nacozari De García</t>
         </is>
       </c>
       <c r="C824">
@@ -11281,7 +11281,7 @@
     <row r="830">
       <c r="B830" t="inlineStr">
         <is>
-          <t>San Miguel de Horcasitas</t>
+          <t>San Miguel De Horcasitas</t>
         </is>
       </c>
       <c r="C830">
@@ -11390,7 +11390,7 @@
     <row r="838">
       <c r="B838" t="inlineStr">
         <is>
-          <t>Jalpa de Méndez</t>
+          <t>Jalpa De Méndez</t>
         </is>
       </c>
       <c r="C838">
@@ -11647,7 +11647,7 @@
     <row r="857">
       <c r="B857" t="inlineStr">
         <is>
-          <t>Ixtacuixtla de Mariano Matamoros</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C857">
@@ -11834,7 +11834,7 @@
     <row r="871">
       <c r="B871" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C871">
@@ -11899,7 +11899,7 @@
     <row r="876">
       <c r="B876" t="inlineStr">
         <is>
-          <t>Camarón de Tejeda</t>
+          <t>Camarón De Tejeda</t>
         </is>
       </c>
       <c r="C876">
@@ -12016,7 +12016,7 @@
     <row r="885">
       <c r="B885" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C885">
@@ -12224,7 +12224,7 @@
     <row r="901">
       <c r="B901" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C901">
@@ -12250,7 +12250,7 @@
     <row r="903">
       <c r="B903" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C903">
@@ -12289,7 +12289,7 @@
     <row r="906">
       <c r="B906" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C906">
@@ -12380,7 +12380,7 @@
     <row r="913">
       <c r="B913" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C913">
@@ -12406,7 +12406,7 @@
     <row r="915">
       <c r="B915" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C915">
@@ -12679,7 +12679,7 @@
     <row r="936">
       <c r="B936" t="inlineStr">
         <is>
-          <t>Zozocolco de Hidalgo</t>
+          <t>Zozocolco De Hidalgo</t>
         </is>
       </c>
       <c r="C936">
@@ -12884,7 +12884,7 @@
     <row r="951">
       <c r="B951" t="inlineStr">
         <is>
-          <t>Concepción del Oro</t>
+          <t>Concepción Del Oro</t>
         </is>
       </c>
       <c r="C951">
@@ -13079,7 +13079,7 @@
     <row r="966">
       <c r="B966" t="inlineStr">
         <is>
-          <t>Moyahua de Estrada</t>
+          <t>Moyahua De Estrada</t>
         </is>
       </c>
       <c r="C966">
@@ -13222,7 +13222,7 @@
     <row r="977">
       <c r="B977" t="inlineStr">
         <is>
-          <t>Teúl de González Ortega</t>
+          <t>Teúl De González Ortega</t>
         </is>
       </c>
       <c r="C977">
@@ -13235,7 +13235,7 @@
     <row r="978">
       <c r="B978" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C978">
@@ -13261,7 +13261,7 @@
     <row r="980">
       <c r="B980" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C980">
@@ -13347,41 +13347,6 @@
       </c>
       <c r="D986">
         <v>1</v>
-      </c>
-    </row>
-    <row r="988">
-      <c r="B988" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 497,795</t>
-        </is>
-      </c>
-    </row>
-    <row r="989">
-      <c r="B989" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="990">
-      <c r="B990" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="991">
-      <c r="B991" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="992">
-      <c r="B992" t="inlineStr">
-        <is>
-          <t>Octubre de 2021</t>
-        </is>
       </c>
     </row>
   </sheetData>
